--- a/downloads/format_oscrms_penjadwalan.xlsx
+++ b/downloads/format_oscrms_penjadwalan.xlsx
@@ -439,10 +439,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -515,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,9 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,7 +893,7 @@
   <dimension ref="A1:AJ105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -957,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -1051,145 +1048,145 @@
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
     </row>
     <row r="5" spans="1:36">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="Z5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AC5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AD5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AE5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AF5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AG5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AH5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AI5" s="9" t="s">
+      <c r="AI5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AJ5" s="9" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:36">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1219,25 +1216,25 @@
       <c r="L6" s="2">
         <v>0</v>
       </c>
-      <c r="M6" s="8">
-        <v>1</v>
-      </c>
-      <c r="N6" s="8">
-        <v>1</v>
-      </c>
-      <c r="O6" s="8">
-        <v>1</v>
-      </c>
-      <c r="P6" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>1</v>
-      </c>
-      <c r="R6" s="8">
-        <v>1</v>
-      </c>
-      <c r="S6" s="8">
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7">
         <v>0</v>
       </c>
       <c r="T6" s="2">
@@ -1261,25 +1258,25 @@
       <c r="Z6" s="2">
         <v>0</v>
       </c>
-      <c r="AA6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="8">
+      <c r="AA6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="7">
         <v>0</v>
       </c>
       <c r="AH6" s="2">
@@ -1293,13 +1290,13 @@
       </c>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1329,25 +1326,25 @@
       <c r="L7" s="2">
         <v>1</v>
       </c>
-      <c r="M7" s="8">
-        <v>1</v>
-      </c>
-      <c r="N7" s="8">
-        <v>1</v>
-      </c>
-      <c r="O7" s="8">
-        <v>1</v>
-      </c>
-      <c r="P7" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>1</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="8">
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
         <v>1</v>
       </c>
       <c r="T7" s="2">
@@ -1371,25 +1368,25 @@
       <c r="Z7" s="2">
         <v>1</v>
       </c>
-      <c r="AA7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="8">
+      <c r="AA7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="7">
         <v>1</v>
       </c>
       <c r="AH7" s="2">
@@ -1403,13 +1400,13 @@
       </c>
     </row>
     <row r="8" spans="1:36">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1439,25 +1436,25 @@
       <c r="L8" s="2">
         <v>1</v>
       </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8">
-        <v>1</v>
-      </c>
-      <c r="O8" s="8">
-        <v>1</v>
-      </c>
-      <c r="P8" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="8">
-        <v>1</v>
-      </c>
-      <c r="S8" s="8">
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1</v>
+      </c>
+      <c r="S8" s="7">
         <v>1</v>
       </c>
       <c r="T8" s="2">
@@ -1481,25 +1478,25 @@
       <c r="Z8" s="2">
         <v>1</v>
       </c>
-      <c r="AA8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="8">
+      <c r="AA8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="7">
         <v>1</v>
       </c>
       <c r="AH8" s="2">
@@ -1513,13 +1510,13 @@
       </c>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1549,25 +1546,25 @@
       <c r="L9" s="2">
         <v>1</v>
       </c>
-      <c r="M9" s="8">
-        <v>1</v>
-      </c>
-      <c r="N9" s="8">
-        <v>1</v>
-      </c>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>1</v>
-      </c>
-      <c r="R9" s="8">
-        <v>1</v>
-      </c>
-      <c r="S9" s="8">
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
         <v>1</v>
       </c>
       <c r="T9" s="2">
@@ -1591,25 +1588,25 @@
       <c r="Z9" s="2">
         <v>1</v>
       </c>
-      <c r="AA9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="8">
+      <c r="AA9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="7">
         <v>1</v>
       </c>
       <c r="AH9" s="2">
@@ -1623,13 +1620,13 @@
       </c>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1659,25 +1656,25 @@
       <c r="L10" s="2">
         <v>1</v>
       </c>
-      <c r="M10" s="8">
-        <v>1</v>
-      </c>
-      <c r="N10" s="8">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>1</v>
-      </c>
-      <c r="R10" s="8">
-        <v>1</v>
-      </c>
-      <c r="S10" s="8">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
+      <c r="R10" s="7">
+        <v>1</v>
+      </c>
+      <c r="S10" s="7">
         <v>1</v>
       </c>
       <c r="T10" s="2">
@@ -1701,25 +1698,25 @@
       <c r="Z10" s="2">
         <v>1</v>
       </c>
-      <c r="AA10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="8">
+      <c r="AA10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="7">
         <v>1</v>
       </c>
       <c r="AH10" s="2">
@@ -1733,13 +1730,13 @@
       </c>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1769,25 +1766,25 @@
       <c r="L11" s="2">
         <v>1</v>
       </c>
-      <c r="M11" s="8">
-        <v>1</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>1</v>
-      </c>
-      <c r="P11" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>1</v>
-      </c>
-      <c r="R11" s="8">
-        <v>1</v>
-      </c>
-      <c r="S11" s="8">
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
+      <c r="R11" s="7">
+        <v>1</v>
+      </c>
+      <c r="S11" s="7">
         <v>1</v>
       </c>
       <c r="T11" s="2">
@@ -1811,25 +1808,25 @@
       <c r="Z11" s="2">
         <v>1</v>
       </c>
-      <c r="AA11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="8">
+      <c r="AA11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="7">
         <v>1</v>
       </c>
       <c r="AH11" s="2">
@@ -1843,13 +1840,13 @@
       </c>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1879,25 +1876,25 @@
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="8">
-        <v>1</v>
-      </c>
-      <c r="P12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>1</v>
-      </c>
-      <c r="R12" s="8">
-        <v>1</v>
-      </c>
-      <c r="S12" s="8">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
+      <c r="R12" s="7">
+        <v>1</v>
+      </c>
+      <c r="S12" s="7">
         <v>1</v>
       </c>
       <c r="T12" s="2">
@@ -1921,25 +1918,25 @@
       <c r="Z12" s="2">
         <v>1</v>
       </c>
-      <c r="AA12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="8">
+      <c r="AA12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="7">
         <v>1</v>
       </c>
       <c r="AH12" s="2">
@@ -1953,13 +1950,13 @@
       </c>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1989,25 +1986,25 @@
       <c r="L13" s="2">
         <v>1</v>
       </c>
-      <c r="M13" s="8">
-        <v>1</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>1</v>
-      </c>
-      <c r="P13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>1</v>
-      </c>
-      <c r="R13" s="8">
-        <v>1</v>
-      </c>
-      <c r="S13" s="8">
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>1</v>
+      </c>
+      <c r="R13" s="7">
+        <v>1</v>
+      </c>
+      <c r="S13" s="7">
         <v>1</v>
       </c>
       <c r="T13" s="2">
@@ -2031,25 +2028,25 @@
       <c r="Z13" s="2">
         <v>1</v>
       </c>
-      <c r="AA13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="8">
+      <c r="AA13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="7">
         <v>1</v>
       </c>
       <c r="AH13" s="2">
@@ -2063,13 +2060,13 @@
       </c>
     </row>
     <row r="14" spans="1:36">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2099,25 +2096,25 @@
       <c r="L14" s="2">
         <v>1</v>
       </c>
-      <c r="M14" s="8">
-        <v>1</v>
-      </c>
-      <c r="N14" s="8">
-        <v>1</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>1</v>
-      </c>
-      <c r="R14" s="8">
-        <v>1</v>
-      </c>
-      <c r="S14" s="8">
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1</v>
+      </c>
+      <c r="R14" s="7">
+        <v>1</v>
+      </c>
+      <c r="S14" s="7">
         <v>1</v>
       </c>
       <c r="T14" s="2">
@@ -2141,25 +2138,25 @@
       <c r="Z14" s="2">
         <v>1</v>
       </c>
-      <c r="AA14" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="8">
+      <c r="AA14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="7">
         <v>1</v>
       </c>
       <c r="AH14" s="2">
@@ -2173,13 +2170,13 @@
       </c>
     </row>
     <row r="15" spans="1:36">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2209,25 +2206,25 @@
       <c r="L15" s="2">
         <v>1</v>
       </c>
-      <c r="M15" s="8">
-        <v>1</v>
-      </c>
-      <c r="N15" s="8">
-        <v>1</v>
-      </c>
-      <c r="O15" s="8">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>1</v>
-      </c>
-      <c r="R15" s="8">
-        <v>1</v>
-      </c>
-      <c r="S15" s="8">
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1</v>
+      </c>
+      <c r="S15" s="7">
         <v>1</v>
       </c>
       <c r="T15" s="2">
@@ -2251,25 +2248,25 @@
       <c r="Z15" s="2">
         <v>1</v>
       </c>
-      <c r="AA15" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="8">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="8">
-        <v>1</v>
-      </c>
-      <c r="AG15" s="8">
+      <c r="AA15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="7">
         <v>1</v>
       </c>
       <c r="AH15" s="2">
@@ -2283,452 +2280,452 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="10" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="10" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="10" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="10" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="10" t="s">
         <v>138</v>
       </c>
     </row>
